--- a/Documents/Trafo/MjenjeTrafoa.xlsx
+++ b/Documents/Trafo/MjenjeTrafoa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ernad\Elreg\projekti\HARDWARE\PE-1100_Elreg_Sender\Documents\Trafo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ernad\Elreg\projects\Hardware\PE-1100_Elreg_Sender\Documents\Trafo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDB8892-82AF-4FE4-AC78-248C1B2BE651}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C053B558-185D-47CC-A5B5-5564910BC980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{EE6356AD-C480-40D6-B43B-2FE604C38A58}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="21600" windowHeight="11328" xr2:uid="{EE6356AD-C480-40D6-B43B-2FE604C38A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>RACUNANJE / PROVJERA INDUKTIVNOSTI</t>
   </si>
@@ -130,6 +132,12 @@
       </rPr>
       <t xml:space="preserve"> ?   =&gt; prema datasheet od nekih slicnih, mora biti "gapped" inace bi AL moralo biti puno vise</t>
     </r>
+  </si>
+  <si>
+    <t>prim</t>
+  </si>
+  <si>
+    <t>sec</t>
   </si>
 </sst>
 </file>
@@ -218,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,15 +522,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C000288-1870-40D1-B06F-F7449AFD7F5E}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,6 +623,9 @@
       </c>
       <c r="F7" t="s">
         <v>19</v>
+      </c>
+      <c r="G7">
+        <v>138</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -635,6 +652,16 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
